--- a/target/test-classes/excel/testdata.xlsx
+++ b/target/test-classes/excel/testdata.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>FirstName</t>
   </si>
@@ -38,13 +38,19 @@
     <t>A24DG</t>
   </si>
   <si>
-    <t>mhima</t>
+    <t>mahima</t>
   </si>
   <si>
     <t>yadav</t>
   </si>
   <si>
-    <t>dghgh</t>
+    <t>M5hl</t>
+  </si>
+  <si>
+    <t>W9hk</t>
+  </si>
+  <si>
+    <t>Amit</t>
   </si>
 </sst>
 </file>
@@ -376,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -415,6 +421,17 @@
       </c>
       <c r="C3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/excel/testdata.xlsx
+++ b/target/test-classes/excel/testdata.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>FirstName</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Amit</t>
+  </si>
+  <si>
+    <t>AlertText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer added successfully </t>
   </si>
 </sst>
 </file>
@@ -382,15 +388,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,8 +406,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -411,8 +420,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -422,8 +434,11 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -432,6 +447,9 @@
       </c>
       <c r="C4" t="s">
         <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/excel/testdata.xlsx
+++ b/target/test-classes/excel/testdata.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="15456" windowHeight="4632"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="15456" windowHeight="4632" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="OpenAccountTest" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:O14"/>
+  <oleSize ref="A1:N14"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>FirstName</t>
   </si>
@@ -57,6 +57,30 @@
   </si>
   <si>
     <t xml:space="preserve">Customer added successfully </t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Sneha Yadav</t>
+  </si>
+  <si>
+    <t>mahima yadav</t>
+  </si>
+  <si>
+    <t>Amit yadav</t>
+  </si>
+  <si>
+    <t>rupees</t>
+  </si>
+  <si>
+    <t>euro</t>
+  </si>
+  <si>
+    <t>doller</t>
   </si>
 </sst>
 </file>
@@ -390,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -459,12 +483,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
